--- a/etc/2185-swen-261-04-d damns.xlsx
+++ b/etc/2185-swen-261-04-d damns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suwamik Paul\Desktop\SWEN\team-project-2185-swen-261-04-d-damns\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AB78AD4-B16E-4482-9B56-F51E215401E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92E12C6-0EA7-463E-B111-C072E3E05541}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>Instructions</t>
   </si>
@@ -306,14 +306,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="34">
     <dxf>
       <fill>
         <patternFill>
@@ -479,13 +472,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -902,7 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -950,9 +936,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H599"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1351,9 +1337,6 @@
       </c>
       <c r="C31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -1362,9 +1345,6 @@
       </c>
       <c r="C32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -4225,138 +4205,138 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C599 E2:E599 G2:G599">
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="38" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D599">
-    <cfRule type="expression" dxfId="33" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
       <formula>AND(ISBLANK(D2),C2="Fail")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="31" stopIfTrue="1">
       <formula>AND(ISBLANK(D2),C2="Pass")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F18 F30 F33:F599">
-    <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="29" stopIfTrue="1">
       <formula>AND(ISBLANK(F2),E2="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="30" stopIfTrue="1">
       <formula>AND(ISBLANK(F2),E2="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H599">
-    <cfRule type="expression" dxfId="29" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
       <formula>AND(ISBLANK(H2),G2="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
       <formula>AND(ISBLANK(H2),G2="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="25" stopIfTrue="1">
       <formula>AND(ISBLANK(F19),E19="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
       <formula>AND(ISBLANK(F19),E19="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="23" stopIfTrue="1">
       <formula>AND(ISBLANK(F20),E20="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="24" stopIfTrue="1">
       <formula>AND(ISBLANK(F20),E20="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
       <formula>AND(ISBLANK(F21),E21="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
       <formula>AND(ISBLANK(F21),E21="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="19" stopIfTrue="1">
       <formula>AND(ISBLANK(F22),E22="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
       <formula>AND(ISBLANK(F22),E22="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
       <formula>AND(ISBLANK(F23),E23="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
       <formula>AND(ISBLANK(F23),E23="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
       <formula>AND(ISBLANK(F24),E24="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
       <formula>AND(ISBLANK(F24),E24="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
       <formula>AND(ISBLANK(F25),E25="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
       <formula>AND(ISBLANK(F25),E25="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
       <formula>AND(ISBLANK(F26),E26="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
       <formula>AND(ISBLANK(F26),E26="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>AND(ISBLANK(F27),E27="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
       <formula>AND(ISBLANK(F27),E27="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
       <formula>AND(ISBLANK(F28),E28="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
       <formula>AND(ISBLANK(F28),E28="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>AND(ISBLANK(F29),E29="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>AND(ISBLANK(F29),E29="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>AND(ISBLANK(F31),E31="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>AND(ISBLANK(F31),E31="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>AND(ISBLANK(F32),E32="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>AND(ISBLANK(F32),E32="Fail")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/etc/2185-swen-261-04-d damns.xlsx
+++ b/etc/2185-swen-261-04-d damns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suwamik Paul\Desktop\SWEN\team-project-2185-swen-261-04-d-damns\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92E12C6-0EA7-463E-B111-C072E3E05541}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA49899-59DE-4B4E-B9C3-4F216F557C83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="64">
   <si>
     <t>Instructions</t>
   </si>
@@ -202,12 +202,33 @@
   <si>
     <t>2185-swen-261-04-d damns</t>
   </si>
+  <si>
+    <t>As a Player, I want to have an AI, so I can play Against it</t>
+  </si>
+  <si>
+    <t>GIVEN I choose to play the AI WHEN it's its turn THEN it makes legal moves without user input</t>
+  </si>
+  <si>
+    <t>GO 4/8</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>GO 4/8 Not all player screens update with a complete list of players</t>
+  </si>
+  <si>
+    <t>If you sign out of a game instead of resigning the game is not ended. Example start a game with AI and then sign out. Dylan will still be under specate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -236,13 +257,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -263,10 +296,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -302,8 +336,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="34">
@@ -520,14 +561,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -934,11 +975,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H599"/>
+  <dimension ref="A1:H600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -992,7 +1033,12 @@
         <v>30</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="G2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
@@ -1004,7 +1050,12 @@
         <v>30</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
@@ -1016,7 +1067,12 @@
         <v>30</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
@@ -1028,7 +1084,12 @@
         <v>30</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
@@ -1040,7 +1101,12 @@
         <v>30</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
@@ -1052,7 +1118,12 @@
         <v>30</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
@@ -1064,7 +1135,12 @@
         <v>30</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
@@ -1076,7 +1152,12 @@
         <v>30</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
@@ -1088,7 +1169,12 @@
         <v>30</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
@@ -1103,8 +1189,12 @@
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="11"/>
+      <c r="G11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
@@ -1116,7 +1206,12 @@
         <v>30</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
@@ -1128,7 +1223,12 @@
         <v>30</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
@@ -1140,7 +1240,12 @@
         <v>30</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
@@ -1152,7 +1257,12 @@
         <v>30</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
@@ -1164,9 +1274,14 @@
         <v>30</v>
       </c>
       <c r="E16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="G16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
         <v>19</v>
@@ -1176,9 +1291,14 @@
         <v>30</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
         <v>20</v>
@@ -1188,9 +1308,14 @@
         <v>30</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>31</v>
       </c>
@@ -1202,9 +1327,14 @@
       <c r="F19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
@@ -1213,9 +1343,14 @@
       <c r="F20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
@@ -1224,9 +1359,14 @@
       <c r="F21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
@@ -1235,9 +1375,14 @@
       <c r="F22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
@@ -1246,9 +1391,14 @@
       <c r="F23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
@@ -1257,9 +1407,14 @@
       <c r="F24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
@@ -1271,9 +1426,14 @@
       <c r="F25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
@@ -1282,9 +1442,14 @@
       <c r="F26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
@@ -1296,9 +1461,14 @@
       <c r="F27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G27" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>43</v>
       </c>
@@ -1307,9 +1477,14 @@
       <c r="F28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>44</v>
       </c>
@@ -1318,9 +1493,14 @@
       <c r="F29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
@@ -1329,121 +1509,154 @@
       </c>
       <c r="C30" s="8"/>
       <c r="E30" s="8"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G30" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G31" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G33" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C34" s="8"/>
       <c r="E34" s="8"/>
       <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="B35" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C35" s="8"/>
       <c r="E35" s="8"/>
       <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>53</v>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C36" s="8"/>
       <c r="E36" s="8"/>
       <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C37" s="8"/>
       <c r="E37" s="8"/>
       <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C38" s="8"/>
       <c r="E38" s="8"/>
       <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C39" s="8"/>
       <c r="E39" s="8"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C40" s="8"/>
       <c r="E40" s="8"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C41" s="8"/>
       <c r="E41" s="8"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C42" s="8"/>
       <c r="E42" s="8"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C43" s="8"/>
       <c r="E43" s="8"/>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C44" s="8"/>
       <c r="E44" s="8"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C45" s="8"/>
       <c r="E45" s="8"/>
       <c r="G45" s="8"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C46" s="8"/>
       <c r="E46" s="8"/>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C47" s="8"/>
       <c r="E47" s="8"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C48" s="8"/>
       <c r="E48" s="8"/>
       <c r="G48" s="8"/>
@@ -4203,8 +4416,13 @@
       <c r="E599" s="8"/>
       <c r="G599" s="8"/>
     </row>
+    <row r="600" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C600" s="8"/>
+      <c r="E600" s="8"/>
+      <c r="G600" s="8"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C599 E2:E599 G2:G599">
+  <conditionalFormatting sqref="C2:C600 E2:E600 G2:G600">
     <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -4212,15 +4430,15 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D599">
-    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
+  <conditionalFormatting sqref="D2:D600">
+    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
+      <formula>AND(ISBLANK(D2),C2="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
       <formula>AND(ISBLANK(D2),C2="Fail")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="31" stopIfTrue="1">
-      <formula>AND(ISBLANK(D2),C2="Pass")</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F18 F30 F33:F599">
+  <conditionalFormatting sqref="F2:F18 F30 F34:F600">
     <cfRule type="expression" dxfId="29" priority="29" stopIfTrue="1">
       <formula>AND(ISBLANK(F2),E2="Pass")</formula>
     </cfRule>
@@ -4228,7 +4446,7 @@
       <formula>AND(ISBLANK(F2),E2="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H599">
+  <conditionalFormatting sqref="H2:H600">
     <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
       <formula>AND(ISBLANK(H2),G2="Pass")</formula>
     </cfRule>
@@ -4332,7 +4550,7 @@
       <formula>AND(ISBLANK(F31),E31="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
+  <conditionalFormatting sqref="F32:F33">
     <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>AND(ISBLANK(F32),E32="Pass")</formula>
     </cfRule>
@@ -4341,7 +4559,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E599 C2:C599 G2:G599" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E600 C2:C600 G2:G600" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4351,7 +4569,7 @@
     <brk id="24" max="16383" man="1"/>
     <brk id="26" max="16383" man="1"/>
     <brk id="29" max="16383" man="1"/>
-    <brk id="32" max="16383" man="1"/>
+    <brk id="33" max="16383" man="1"/>
   </rowBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
